--- a/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200304.xlsx
+++ b/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200304.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\20200304(今天)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\neimenggu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A43CE2-7585-4CAA-AE41-6DC9F202CEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D3CF6E-0CC0-4E5C-ACA9-0F0FDDFC2AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1728" yWindow="1440" windowWidth="19524" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -12196,46 +12196,46 @@
   <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.81640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.6328125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.90625" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.08984375" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.875" style="13"/>
+    <col min="40" max="40" width="5.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.90625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1" ht="15">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="16.2">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" ht="16.2">
       <c r="V45" s="20"/>
     </row>
   </sheetData>
@@ -14757,10 +14757,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
